--- a/焦炭/eta/焦炭期货价格_月度数据.xlsx
+++ b/焦炭/eta/焦炭期货价格_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>1701.2823</v>
+        <v>2031.311</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1685.4167</v>
+        <v>1696.5714</v>
       </c>
       <c r="C3" t="n">
-        <v>1709.0319</v>
+        <v>1734.8551</v>
       </c>
     </row>
     <row r="4">
